--- a/Mẫu Báo Cáo Tuần  - Nguyễn Thị Ngọc Ánh - C0219H1.xlsx
+++ b/Mẫu Báo Cáo Tuần  - Nguyễn Thị Ngọc Ánh - C0219H1.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="5025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="5025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tuần 1" sheetId="1" r:id="rId1"/>
     <sheet name="tuần 2" sheetId="2" r:id="rId2"/>
+    <sheet name="tuần3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>Trung tâm: CodeGym Đà Nẵng</t>
   </si>
@@ -131,6 +132,30 @@
   </si>
   <si>
     <t>bài luyện tập</t>
+  </si>
+  <si>
+    <t>Tuần: 04/03/2018 đến 09/03/2019</t>
+  </si>
+  <si>
+    <t>Ngày báo cáo: 11/3/2019</t>
+  </si>
+  <si>
+    <t>lập trình hướng đối tượng (1 và 2)</t>
+  </si>
+  <si>
+    <t>xử lí chuỗi</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>thứ 5 14/03/2019</t>
+  </si>
+  <si>
+    <t>bài luyện tập kết hợp nhiều hơn với CSS và HTML</t>
+  </si>
+  <si>
+    <t>cần thời gian để ghi nhớ và thành thạo hơn regular expression</t>
   </si>
 </sst>
 </file>
@@ -279,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -291,6 +316,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -607,10 +634,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -627,20 +654,20 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
@@ -657,10 +684,10 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
@@ -739,16 +766,16 @@
       <c r="E16" s="4"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
@@ -821,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -837,10 +864,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -857,20 +884,20 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
@@ -887,10 +914,10 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
@@ -973,16 +1000,16 @@
       <c r="E16" s="4"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7">
@@ -1073,4 +1100,249 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="12"/>
+    <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="40" style="12" customWidth="1"/>
+    <col min="4" max="4" width="20" style="12" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>